--- a/data/trans_orig/P36BPD11_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD11_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78AFDFE2-9CA9-4638-939C-77A71258221C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13333556-F0F1-4569-8A08-28D606B4F6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{38DECD18-1825-47A2-BD02-9EF24188BA6B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F4D21EB3-71E8-4DA1-8DBF-406093F34334}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="122">
   <si>
     <t>Población según el número de veces que consumen repostería comercial a la semana en 2023 (Tasa respuesta: 99,81%)</t>
   </si>
@@ -74,19 +74,19 @@
     <t>45,8%</t>
   </si>
   <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
   </si>
   <si>
     <t>48,16%</t>
   </si>
   <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
   </si>
   <si>
     <t>47,23%</t>
@@ -95,7 +95,7 @@
     <t>44,93%</t>
   </si>
   <si>
-    <t>49,52%</t>
+    <t>49,62%</t>
   </si>
   <si>
     <t>Uno o dos a la semana</t>
@@ -104,28 +104,25 @@
     <t>35,48%</t>
   </si>
   <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
   </si>
   <si>
     <t>36,7%</t>
   </si>
   <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
   </si>
   <si>
     <t>36,22%</t>
   </si>
   <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
+    <t>38,44%</t>
   </si>
   <si>
     <t>Tres o más a la semana</t>
@@ -134,28 +131,28 @@
     <t>18,72%</t>
   </si>
   <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
   </si>
   <si>
     <t>15,14%</t>
   </si>
   <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
   </si>
   <si>
     <t>16,55%</t>
   </si>
   <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,82 +164,82 @@
     <t>43,02%</t>
   </si>
   <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
   </si>
   <si>
     <t>47,62%</t>
   </si>
   <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
   </si>
   <si>
     <t>45,37%</t>
   </si>
   <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
   </si>
   <si>
     <t>38,56%</t>
   </si>
   <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
   </si>
   <si>
     <t>37,31%</t>
   </si>
   <si>
-    <t>30,47%</t>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
   </si>
   <si>
     <t>39,99%</t>
   </si>
   <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
     <t>18,42%</t>
   </si>
   <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
   </si>
   <si>
     <t>15,07%</t>
   </si>
   <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
   </si>
   <si>
     <t>16,71%</t>
   </si>
   <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -251,163 +248,157 @@
     <t>54,99%</t>
   </si>
   <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
   </si>
   <si>
     <t>59,53%</t>
   </si>
   <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
   </si>
   <si>
     <t>57,32%</t>
   </si>
   <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
   </si>
   <si>
     <t>32,85%</t>
   </si>
   <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
   </si>
   <si>
     <t>29,13%</t>
   </si>
   <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
   </si>
   <si>
     <t>30,94%</t>
   </si>
   <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
   </si>
   <si>
     <t>12,16%</t>
   </si>
   <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
   </si>
   <si>
     <t>11,34%</t>
   </si>
   <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
   </si>
   <si>
     <t>11,74%</t>
   </si>
   <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
   </si>
   <si>
     <t>45,85%</t>
   </si>
   <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
   </si>
   <si>
     <t>49,97%</t>
   </si>
   <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
   </si>
   <si>
     <t>48,03%</t>
   </si>
   <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
   </si>
   <si>
     <t>36,93%</t>
   </si>
   <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
   </si>
   <si>
     <t>35,64%</t>
   </si>
   <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
   </si>
   <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
   </si>
   <si>
     <t>17,22%</t>
   </si>
   <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
+    <t>15,71%</t>
   </si>
   <si>
     <t>14,39%</t>
   </si>
   <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
+    <t>12,95%</t>
   </si>
   <si>
     <t>15,72%</t>
   </si>
   <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -822,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFF98EF-48A2-4AC9-ABE3-7BA722F91036}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D56772F-3429-4AFF-8E7D-9445736A4BA4}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1030,16 +1021,16 @@
         <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>117</v>
@@ -1048,13 +1039,13 @@
         <v>101104</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>206</v>
@@ -1063,13 +1054,13 @@
         <v>126180</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>323</v>
@@ -1078,13 +1069,13 @@
         <v>227284</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1099,13 +1090,13 @@
         <v>540112</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>1422</v>
@@ -1114,13 +1105,13 @@
         <v>833331</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>2111</v>
@@ -1129,18 +1120,18 @@
         <v>1373442</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1152,13 +1143,13 @@
         <v>929608</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>1421</v>
@@ -1167,13 +1158,13 @@
         <v>1070764</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>2315</v>
@@ -1182,13 +1173,13 @@
         <v>2000372</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1203,13 +1194,13 @@
         <v>833260</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>1052</v>
@@ -1218,13 +1209,13 @@
         <v>838965</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>1785</v>
@@ -1233,19 +1224,19 @@
         <v>1672225</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>363</v>
@@ -1254,13 +1245,13 @@
         <v>397917</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>447</v>
@@ -1269,13 +1260,13 @@
         <v>338906</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>810</v>
@@ -1284,13 +1275,13 @@
         <v>736823</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1305,13 +1296,13 @@
         <v>2160785</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>2920</v>
@@ -1320,13 +1311,13 @@
         <v>2248635</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>4910</v>
@@ -1335,18 +1326,18 @@
         <v>4409420</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1358,13 +1349,13 @@
         <v>370110</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>620</v>
@@ -1373,13 +1364,13 @@
         <v>423671</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>1003</v>
@@ -1388,13 +1379,13 @@
         <v>793781</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1409,13 +1400,13 @@
         <v>221079</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>274</v>
@@ -1424,13 +1415,13 @@
         <v>207363</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>488</v>
@@ -1439,19 +1430,19 @@
         <v>428442</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>84</v>
@@ -1460,13 +1451,13 @@
         <v>81850</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>107</v>
@@ -1475,13 +1466,13 @@
         <v>80702</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>191</v>
@@ -1490,13 +1481,13 @@
         <v>162551</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1511,13 +1502,13 @@
         <v>673039</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>1001</v>
@@ -1526,13 +1517,13 @@
         <v>711736</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>1682</v>
@@ -1541,13 +1532,13 @@
         <v>1384775</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1564,13 +1555,13 @@
         <v>1547077</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>2741</v>
@@ -1579,28 +1570,28 @@
         <v>1895793</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>4358</v>
       </c>
       <c r="N16" s="7">
-        <v>3442870</v>
+        <v>3442871</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1615,13 +1606,13 @@
         <v>1245988</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>1842</v>
@@ -1630,13 +1621,13 @@
         <v>1352121</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>3021</v>
@@ -1645,19 +1636,19 @@
         <v>2598109</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>564</v>
@@ -1666,13 +1657,13 @@
         <v>580870</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>760</v>
@@ -1681,13 +1672,13 @@
         <v>545788</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="M18" s="7">
         <v>1324</v>
@@ -1696,13 +1687,13 @@
         <v>1126658</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1717,13 +1708,13 @@
         <v>3373936</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>5343</v>
@@ -1732,33 +1723,33 @@
         <v>3793702</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>8703</v>
       </c>
       <c r="N19" s="7">
-        <v>7167637</v>
+        <v>7167638</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD11_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD11_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13333556-F0F1-4569-8A08-28D606B4F6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1B6D561-B515-4983-A647-CB113A2151E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F4D21EB3-71E8-4DA1-8DBF-406093F34334}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0253A8CF-1D0E-477D-B38B-89EEC800810F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
   <si>
     <t>Población según el número de veces que consumen repostería comercial a la semana en 2023 (Tasa respuesta: 99,81%)</t>
   </si>
@@ -71,334 +71,337 @@
     <t>Menos de una a la semana</t>
   </si>
   <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
   </si>
   <si>
     <t>Uno o dos a la semana</t>
   </si>
   <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>Tres o más a la semana</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
     <t>35,48%</t>
   </si>
   <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>Tres o más a la semana</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
   </si>
   <si>
     <t>37,31%</t>
   </si>
   <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
+    <t>16,33%</t>
   </si>
   <si>
     <t>12,95%</t>
   </si>
   <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -813,7 +816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D56772F-3429-4AFF-8E7D-9445736A4BA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A905F27-B964-420D-8DE7-D2B95D52937C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -934,7 +937,7 @@
         <v>340</v>
       </c>
       <c r="D4" s="7">
-        <v>247359</v>
+        <v>237628</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -949,7 +952,7 @@
         <v>700</v>
       </c>
       <c r="I4" s="7">
-        <v>401359</v>
+        <v>365656</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -964,7 +967,7 @@
         <v>1040</v>
       </c>
       <c r="N4" s="7">
-        <v>648717</v>
+        <v>603285</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -985,7 +988,7 @@
         <v>232</v>
       </c>
       <c r="D5" s="7">
-        <v>191649</v>
+        <v>177821</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1000,7 +1003,7 @@
         <v>516</v>
       </c>
       <c r="I5" s="7">
-        <v>305793</v>
+        <v>272057</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1015,67 +1018,67 @@
         <v>748</v>
       </c>
       <c r="N5" s="7">
-        <v>497441</v>
+        <v>449877</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>117</v>
       </c>
       <c r="D6" s="7">
-        <v>101104</v>
+        <v>98031</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>206</v>
       </c>
       <c r="I6" s="7">
-        <v>126180</v>
+        <v>115353</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>323</v>
       </c>
       <c r="N6" s="7">
-        <v>227284</v>
+        <v>213384</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1087,51 +1090,51 @@
         <v>689</v>
       </c>
       <c r="D7" s="7">
-        <v>540112</v>
+        <v>513480</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>1422</v>
       </c>
       <c r="I7" s="7">
-        <v>833331</v>
+        <v>753066</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>2111</v>
       </c>
       <c r="N7" s="7">
-        <v>1373442</v>
+        <v>1266546</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1140,46 +1143,46 @@
         <v>894</v>
       </c>
       <c r="D8" s="7">
-        <v>929608</v>
+        <v>1108032</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>1421</v>
       </c>
       <c r="I8" s="7">
-        <v>1070764</v>
+        <v>1088447</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>2315</v>
       </c>
       <c r="N8" s="7">
-        <v>2000372</v>
+        <v>2196479</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1191,97 +1194,97 @@
         <v>733</v>
       </c>
       <c r="D9" s="7">
-        <v>833260</v>
+        <v>795117</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>1052</v>
       </c>
       <c r="I9" s="7">
-        <v>838965</v>
+        <v>810546</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>1785</v>
       </c>
       <c r="N9" s="7">
-        <v>1672225</v>
+        <v>1605663</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>363</v>
       </c>
       <c r="D10" s="7">
-        <v>397917</v>
+        <v>385984</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>447</v>
       </c>
       <c r="I10" s="7">
-        <v>338906</v>
+        <v>337973</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>810</v>
       </c>
       <c r="N10" s="7">
-        <v>736823</v>
+        <v>723958</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1293,51 +1296,51 @@
         <v>1990</v>
       </c>
       <c r="D11" s="7">
-        <v>2160785</v>
+        <v>2289133</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>2920</v>
       </c>
       <c r="I11" s="7">
-        <v>2248635</v>
+        <v>2236967</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>4910</v>
       </c>
       <c r="N11" s="7">
-        <v>4409420</v>
+        <v>4526100</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1346,46 +1349,46 @@
         <v>383</v>
       </c>
       <c r="D12" s="7">
-        <v>370110</v>
+        <v>358389</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>620</v>
       </c>
       <c r="I12" s="7">
-        <v>423671</v>
+        <v>391649</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>1003</v>
       </c>
       <c r="N12" s="7">
-        <v>793781</v>
+        <v>750038</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1397,22 +1400,22 @@
         <v>214</v>
       </c>
       <c r="D13" s="7">
-        <v>221079</v>
+        <v>208844</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="H13" s="7">
         <v>274</v>
       </c>
       <c r="I13" s="7">
-        <v>207363</v>
+        <v>192641</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>81</v>
@@ -1427,7 +1430,7 @@
         <v>488</v>
       </c>
       <c r="N13" s="7">
-        <v>428442</v>
+        <v>401485</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>84</v>
@@ -1442,13 +1445,13 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>84</v>
       </c>
       <c r="D14" s="7">
-        <v>81850</v>
+        <v>79390</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>87</v>
@@ -1463,7 +1466,7 @@
         <v>107</v>
       </c>
       <c r="I14" s="7">
-        <v>80702</v>
+        <v>74266</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>90</v>
@@ -1478,7 +1481,7 @@
         <v>191</v>
       </c>
       <c r="N14" s="7">
-        <v>162551</v>
+        <v>153656</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>93</v>
@@ -1499,46 +1502,46 @@
         <v>681</v>
       </c>
       <c r="D15" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>1001</v>
       </c>
       <c r="I15" s="7">
-        <v>711736</v>
+        <v>658555</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>1682</v>
       </c>
       <c r="N15" s="7">
-        <v>1384775</v>
+        <v>1305178</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1552,7 +1555,7 @@
         <v>1617</v>
       </c>
       <c r="D16" s="7">
-        <v>1547077</v>
+        <v>1704050</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>96</v>
@@ -1567,7 +1570,7 @@
         <v>2741</v>
       </c>
       <c r="I16" s="7">
-        <v>1895793</v>
+        <v>1845752</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>99</v>
@@ -1582,7 +1585,7 @@
         <v>4358</v>
       </c>
       <c r="N16" s="7">
-        <v>3442871</v>
+        <v>3549801</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>102</v>
@@ -1603,7 +1606,7 @@
         <v>1179</v>
       </c>
       <c r="D17" s="7">
-        <v>1245988</v>
+        <v>1181782</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>105</v>
@@ -1618,7 +1621,7 @@
         <v>1842</v>
       </c>
       <c r="I17" s="7">
-        <v>1352121</v>
+        <v>1275244</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>108</v>
@@ -1633,7 +1636,7 @@
         <v>3021</v>
       </c>
       <c r="N17" s="7">
-        <v>2598109</v>
+        <v>2457025</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>111</v>
@@ -1648,13 +1651,13 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>564</v>
       </c>
       <c r="D18" s="7">
-        <v>580870</v>
+        <v>563406</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>114</v>
@@ -1663,37 +1666,37 @@
         <v>115</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>760</v>
       </c>
       <c r="I18" s="7">
-        <v>545788</v>
+        <v>527592</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>1324</v>
       </c>
       <c r="N18" s="7">
-        <v>1126658</v>
+        <v>1090997</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1705,51 +1708,51 @@
         <v>3360</v>
       </c>
       <c r="D19" s="7">
-        <v>3373936</v>
+        <v>3449237</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>5343</v>
       </c>
       <c r="I19" s="7">
-        <v>3793702</v>
+        <v>3648588</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>8703</v>
       </c>
       <c r="N19" s="7">
-        <v>7167638</v>
+        <v>7097824</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
